--- a/市場_2025改修/ソース/kouza_yyyy.xlsx
+++ b/市場_2025改修/ソース/kouza_yyyy.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\99_ETC\01_サントク\03_姫路市市場\200_2025改修\ソース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC8E36A-DF3A-487B-BF3A-8078B891AA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C323F997-5BCA-4B0E-BD77-5D6B723B6DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57D4C602-951A-4787-B589-87EE44B525F9}"/>
+    <workbookView xWindow="2040" yWindow="600" windowWidth="22095" windowHeight="14385" xr2:uid="{57D4C602-951A-4787-B589-87EE44B525F9}"/>
   </bookViews>
   <sheets>
     <sheet name="202503" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>テナントコード</t>
   </si>
@@ -176,6 +176,13 @@
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テナント名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -573,74 +580,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE63EE95-3FD2-4943-B7D2-4AA56DCAC459}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/市場_2025改修/ソース/kouza_yyyy.xlsx
+++ b/市場_2025改修/ソース/kouza_yyyy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C323F997-5BCA-4B0E-BD77-5D6B723B6DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750ABB3C-BF5C-432A-9C81-6F84967F23FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="600" windowWidth="22095" windowHeight="14385" xr2:uid="{57D4C602-951A-4787-B589-87EE44B525F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57D4C602-951A-4787-B589-87EE44B525F9}"/>
   </bookViews>
   <sheets>
     <sheet name="202503" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>テナントコード</t>
   </si>
@@ -183,13 +183,36 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座名義</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>引落日</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +232,18 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -239,13 +274,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -580,22 +616,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE63EE95-3FD2-4943-B7D2-4AA56DCAC459}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,39 +664,45 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/市場_2025改修/ソース/kouza_yyyy.xlsx
+++ b/市場_2025改修/ソース/kouza_yyyy.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750ABB3C-BF5C-432A-9C81-6F84967F23FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02187981-A83D-43BD-90FE-6BD87E28968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57D4C602-951A-4787-B589-87EE44B525F9}"/>
   </bookViews>
   <sheets>
     <sheet name="202503" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,29 +41,9 @@
     <t>テナントコード</t>
   </si>
   <si>
-    <t>銀行名</t>
+    <t>銀行コード</t>
     <rPh sb="0" eb="2">
       <t>ギンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>銀行コード</t>
-    <rPh sb="0" eb="2">
-      <t>ギンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支店名</t>
-    <rPh sb="0" eb="2">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -206,6 +186,26 @@
       <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>銀行名カナ</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支店名カナ</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -246,7 +246,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +259,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -268,13 +292,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,6 +324,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -616,20 +676,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE63EE95-3FD2-4943-B7D2-4AA56DCAC459}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="16" width="9.5" bestFit="1" customWidth="1"/>
@@ -639,71 +696,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
